--- a/src/test/resources/TestData/Data.xlsx
+++ b/src/test/resources/TestData/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>SalutationType</t>
+  </si>
+  <si>
+    <t>TC03_createLeadandAccount</t>
+  </si>
+  <si>
+    <t>Narendra</t>
+  </si>
+  <si>
+    <t>Modi</t>
+  </si>
+  <si>
+    <t>BJP</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -408,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
@@ -476,6 +491,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
